--- a/prospects2015.xlsx
+++ b/prospects2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="7770" windowHeight="6360"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="5415" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Arrival</t>
   </si>
   <si>
-    <t>J.P. Crawford</t>
-  </si>
-  <si>
     <t>SS</t>
   </si>
   <si>
@@ -42,18 +39,12 @@
     <t>Braden Shipley</t>
   </si>
   <si>
-    <t>Harry Owens</t>
-  </si>
-  <si>
     <t>Kyle Zimmer</t>
   </si>
   <si>
     <t>Eduardo Rodriguez</t>
   </si>
   <si>
-    <t>Nomar Mazara</t>
-  </si>
-  <si>
     <t>OF</t>
   </si>
   <si>
@@ -66,21 +57,12 @@
     <t>Aaron Blair</t>
   </si>
   <si>
-    <t>Hunter Renfroe</t>
-  </si>
-  <si>
-    <t>Jesse Winker</t>
-  </si>
-  <si>
     <t>Michael Conforto</t>
   </si>
   <si>
     <t>Nick Gordon</t>
   </si>
   <si>
-    <t>Mike Foltynewicz</t>
-  </si>
-  <si>
     <t>Sean Newcomb</t>
   </si>
   <si>
@@ -93,13 +75,61 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Micah Johnson</t>
-  </si>
-  <si>
     <t>Razzball</t>
   </si>
   <si>
     <t>Nate Karns</t>
+  </si>
+  <si>
+    <t>Middle Relievers</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Jepsen </t>
+  </si>
+  <si>
+    <t>A.J. Ramos</t>
+  </si>
+  <si>
+    <t>Adam Ottavino</t>
+  </si>
+  <si>
+    <t>Nick Vincent</t>
+  </si>
+  <si>
+    <t>Rex Brothers</t>
+  </si>
+  <si>
+    <t>Cam Bedrosian</t>
+  </si>
+  <si>
+    <t>K/9</t>
+  </si>
+  <si>
+    <t>ERA</t>
+  </si>
+  <si>
+    <t>WHIp</t>
+  </si>
+  <si>
+    <t>JP Howell</t>
+  </si>
+  <si>
+    <t>Jason Grilli</t>
+  </si>
+  <si>
+    <t>Aaron Barrett</t>
+  </si>
+  <si>
+    <t>John Holdzkom</t>
+  </si>
+  <si>
+    <t>Hunter Strickland</t>
+  </si>
+  <si>
+    <t>Sam Tuivailala</t>
   </si>
 </sst>
 </file>
@@ -438,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,24 +493,24 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,13 +518,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -505,13 +535,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -519,86 +549,86 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5">
         <v>2017</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>2017</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2017</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>2018</v>
-      </c>
-      <c r="D9">
-        <v>34</v>
-      </c>
-      <c r="E9">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2017</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+      <c r="E10">
         <v>50</v>
       </c>
     </row>
@@ -607,13 +637,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -624,133 +654,222 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>2016</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>2017</v>
-      </c>
-      <c r="D14">
-        <v>41</v>
-      </c>
-      <c r="E14">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>2017</v>
-      </c>
-      <c r="D15">
-        <v>43</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>2015</v>
-      </c>
-      <c r="D16">
-        <v>47</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>2017</v>
-      </c>
-      <c r="D17">
-        <v>48</v>
-      </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21">
+        <v>10.62</v>
+      </c>
+      <c r="C21">
+        <v>3.54</v>
+      </c>
+      <c r="D21">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="C18">
-        <v>2017</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18">
+      <c r="B22">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="C22">
+        <v>3.39</v>
+      </c>
+      <c r="D22">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>9.91</v>
+      </c>
+      <c r="C23">
+        <v>3.26</v>
+      </c>
+      <c r="D23">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>9.24</v>
+      </c>
+      <c r="C24">
+        <v>3.72</v>
+      </c>
+      <c r="D24">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>9.25</v>
+      </c>
+      <c r="C25">
+        <v>3.08</v>
+      </c>
+      <c r="D25">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>9.44</v>
+      </c>
+      <c r="C26">
+        <v>4.13</v>
+      </c>
+      <c r="D26">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="C27">
+        <v>3.7</v>
+      </c>
+      <c r="D27">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>8.82</v>
+      </c>
+      <c r="C28">
+        <v>3.31</v>
+      </c>
+      <c r="D28">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>10.72</v>
+      </c>
+      <c r="C29">
+        <v>3.06</v>
+      </c>
+      <c r="D29">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>9.65</v>
+      </c>
+      <c r="C30">
+        <v>2.98</v>
+      </c>
+      <c r="D30">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>10.62</v>
+      </c>
+      <c r="C31">
+        <v>3.38</v>
+      </c>
+      <c r="D31">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
+      <c r="B32">
+        <v>8.67</v>
+      </c>
+      <c r="C32">
+        <v>3.08</v>
+      </c>
+      <c r="D32">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>11.02</v>
+      </c>
+      <c r="C33">
+        <v>3.29</v>
+      </c>
+      <c r="D33">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/prospects2015.xlsx
+++ b/prospects2015.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
